--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-权限模块.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-权限模块.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>功能点</t>
   </si>
@@ -194,19 +194,31 @@
     <t>密码，用md5形式保存</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>类型，1：普通 2：系统保留</t>
+  </si>
+  <si>
     <t>角色信息表(role)</t>
   </si>
   <si>
     <t>权限表(privilege)</t>
   </si>
   <si>
+    <t>退菜</t>
+  </si>
+  <si>
+    <t>打折</t>
+  </si>
+  <si>
     <t>pri_id</t>
   </si>
   <si>
     <t>权限Id</t>
   </si>
   <si>
-    <t>退菜</t>
+    <t>后台</t>
   </si>
   <si>
     <t>desc</t>
@@ -215,7 +227,10 @@
     <t>权限内容描述</t>
   </si>
   <si>
-    <t>打折</t>
+    <t>库存</t>
+  </si>
+  <si>
+    <t>历史</t>
   </si>
   <si>
     <t>角色权限表(role_privilege)</t>
@@ -229,23 +244,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -301,7 +311,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,18 +326,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -343,6 +347,118 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -352,103 +468,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color indexed="64"/>
@@ -598,23 +617,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -625,151 +644,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,21 +784,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1111,18 +1121,20 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="739CC3"/>
+            <a:srgbClr val="739CC3">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="200000"/>
@@ -1147,20 +1159,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="9" style="58"/>
-    <col min="3" max="3" width="50.625" style="57" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="57"/>
+    <col min="1" max="1" width="20.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="9" style="55"/>
+    <col min="3" max="3" width="50.625" style="54" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" s="56" customFormat="1" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" s="53" customFormat="1" customHeight="1">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1168,103 +1180,103 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="55">
         <v>2</v>
       </c>
     </row>
     <row r="5" customHeight="1">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="7" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="55">
         <v>2</v>
       </c>
     </row>
     <row r="8" customHeight="1">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="9" customHeight="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="10" customHeight="1">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="11" customHeight="1">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="12" customHeight="1">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="13" customHeight="1">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="14" customHeight="1">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="55">
         <v>1</v>
       </c>
     </row>
@@ -1283,10 +1295,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:O33"/>
+  <dimension ref="B2:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1312,367 +1324,386 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" customHeight="1">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="38"/>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="39" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" customHeight="1">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="47"/>
+      <c r="N4" s="44"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>1000</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="14">
         <v>1000</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="50" t="s">
+      <c r="N5" s="47" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" customHeight="1">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>1001</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="14">
         <v>1001</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="47" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" customHeight="1">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>1002</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="51"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" customHeight="1">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>1003</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="51"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" customHeight="1">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="51"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="48"/>
     </row>
     <row r="10" customHeight="1">
-      <c r="F10" s="16"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="51"/>
+      <c r="B10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="48"/>
     </row>
     <row r="11" customHeight="1">
-      <c r="B11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="51"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="48"/>
     </row>
     <row r="12" customHeight="1">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="48"/>
+    </row>
+    <row r="13" customHeight="1">
+      <c r="B13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="51"/>
-    </row>
-    <row r="13" customHeight="1">
-      <c r="B13" s="23" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="48"/>
+    </row>
+    <row r="14" customHeight="1">
+      <c r="B14" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="51"/>
-    </row>
-    <row r="14" customHeight="1">
-      <c r="B14" s="25" t="s">
-        <v>34</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="51"/>
+        <v>43</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" customHeight="1">
-      <c r="B15" s="23" t="s">
-        <v>53</v>
+      <c r="B15" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="52"/>
+    </row>
+    <row r="16" customHeight="1">
+      <c r="B16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="51"/>
-    </row>
-    <row r="16" customHeight="1">
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="55"/>
+    </row>
+    <row r="17" customHeight="1">
+      <c r="B17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" customHeight="1">
-      <c r="B18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="F18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
@@ -1680,23 +1711,18 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
     </row>
     <row r="19" customHeight="1">
-      <c r="B19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>33</v>
+      <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="F19" s="31">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>63</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
@@ -1708,20 +1734,20 @@
       <c r="O19" s="29"/>
     </row>
     <row r="20" customHeight="1">
-      <c r="B20" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="31">
-        <v>1000</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>63</v>
+      <c r="B20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1001</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
@@ -1734,134 +1760,141 @@
     </row>
     <row r="21" customHeight="1">
       <c r="B21" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>65</v>
+      <c r="D21" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="F21" s="32">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+        <v>67</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
       <c r="O21" s="29"/>
     </row>
     <row r="22" customHeight="1">
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
+      <c r="B22" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="34">
+        <v>3001</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22" s="29"/>
     </row>
     <row r="23" customHeight="1">
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="F23" s="34">
+        <v>4001</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" s="33"/>
     </row>
     <row r="24" customHeight="1">
-      <c r="B24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" customHeight="1">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" customHeight="1">
+      <c r="B26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C26" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D26" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-    </row>
-    <row r="26" customHeight="1">
-      <c r="B26" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" customHeight="1">
       <c r="B27" s="23" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+        <v>43</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" customHeight="1">
-      <c r="B28" s="25" t="s">
-        <v>34</v>
+      <c r="B28" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+        <v>66</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" customHeight="1">
-      <c r="B29" s="23" t="s">
-        <v>53</v>
+      <c r="B29" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>68</v>
+      <c r="D29" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
     </row>
     <row r="30" customHeight="1">
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
+      <c r="B30" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" customHeight="1">
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
     </row>
     <row r="32" customHeight="1">
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-    </row>
-    <row r="33" customHeight="1">
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1870,12 +1903,15 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C20:C23 C26:C1048576 C13:C17">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10 C17">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C24 C18 C27:C1048576 C14:C16">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-权限模块.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-权限模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9980" tabRatio="841" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="26080" windowHeight="11300" tabRatio="841" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="库存模块功能导航" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>功能点</t>
   </si>
@@ -98,12 +98,12 @@
     <t>员工Id</t>
   </si>
   <si>
-    <t>员工编号</t>
-  </si>
-  <si>
     <t>员工名称</t>
   </si>
   <si>
+    <t>联系电话</t>
+  </si>
+  <si>
     <t>角色</t>
   </si>
   <si>
@@ -125,28 +125,46 @@
     <t>餐厅Id</t>
   </si>
   <si>
+    <t>管理员</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>退菜权限</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>角色Id</t>
+  </si>
+  <si>
     <t>张宁远</t>
   </si>
   <si>
     <t>老板</t>
   </si>
   <si>
-    <t>修改</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>退菜权限</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>role_id</t>
-  </si>
-  <si>
-    <t>角色Id</t>
+    <t>删除 修改</t>
+  </si>
+  <si>
+    <t>打折权限</t>
+  </si>
+  <si>
+    <t>tele</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>员工电话</t>
   </si>
   <si>
     <t>李颖宜</t>
@@ -155,19 +173,13 @@
     <t>财务</t>
   </si>
   <si>
-    <t>删除 修改</t>
-  </si>
-  <si>
     <t>修改  删除</t>
   </si>
   <si>
-    <t>打折权限</t>
-  </si>
-  <si>
-    <t>staff_alias</t>
-  </si>
-  <si>
-    <t>员工自定义Id</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>名称</t>
   </si>
   <si>
     <t>黄海斯</t>
@@ -176,22 +188,16 @@
     <t>部长</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>名称</t>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>密码，用md5形式保存</t>
   </si>
   <si>
     <t>钟泉铭</t>
   </si>
   <si>
-    <t>收银</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>密码，用md5形式保存</t>
+    <t>服务员</t>
   </si>
   <si>
     <t>type</t>
@@ -203,31 +209,37 @@
     <t>角色信息表(role)</t>
   </si>
   <si>
+    <t>cate</t>
+  </si>
+  <si>
+    <t>类型，1：管理员 2：老板 3：财务 4：部长 5：服务员 6：其他</t>
+  </si>
+  <si>
+    <t>退菜</t>
+  </si>
+  <si>
     <t>权限表(privilege)</t>
   </si>
   <si>
-    <t>退菜</t>
-  </si>
-  <si>
     <t>打折</t>
   </si>
   <si>
+    <t>后台</t>
+  </si>
+  <si>
     <t>pri_id</t>
   </si>
   <si>
     <t>权限Id</t>
   </si>
   <si>
-    <t>后台</t>
+    <t>库存</t>
   </si>
   <si>
     <t>desc</t>
   </si>
   <si>
     <t>权限内容描述</t>
-  </si>
-  <si>
-    <t>库存</t>
   </si>
   <si>
     <t>历史</t>
@@ -244,10 +256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -401,12 +413,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -633,7 +643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -671,10 +681,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -683,58 +693,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
@@ -798,10 +802,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,20 +1163,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="9" style="55"/>
-    <col min="3" max="3" width="50.625" style="54" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="54"/>
+    <col min="1" max="1" width="20.6238532110092" style="52" customWidth="1"/>
+    <col min="2" max="2" width="9" style="53"/>
+    <col min="3" max="3" width="50.6238532110092" style="52" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" s="53" customFormat="1" customHeight="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" s="51" customFormat="1" customHeight="1">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1180,103 +1184,103 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="55">
+      <c r="B3" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="53">
         <v>2</v>
       </c>
     </row>
     <row r="5" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="7" customHeight="1">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="53">
         <v>2</v>
       </c>
     </row>
     <row r="8" customHeight="1">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="9" customHeight="1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="10" customHeight="1">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="11" customHeight="1">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="12" customHeight="1">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="13" customHeight="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="14" customHeight="1">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="53">
         <v>1</v>
       </c>
     </row>
@@ -1297,25 +1301,25 @@
   <sheetPr/>
   <dimension ref="B2:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.37614678899083" customWidth="1"/>
+    <col min="2" max="2" width="30.6238532110092" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="30.6238532110092" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.12844036697248" customWidth="1"/>
+    <col min="7" max="7" width="15.2477064220183" customWidth="1"/>
+    <col min="8" max="8" width="11.6238532110092" customWidth="1"/>
+    <col min="9" max="9" width="13.3761467889908" customWidth="1"/>
+    <col min="10" max="10" width="14.8715596330275" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="13.875" customWidth="1"/>
-    <col min="14" max="14" width="6.25" customWidth="1"/>
+    <col min="12" max="12" width="12.7522935779817" customWidth="1"/>
+    <col min="13" max="13" width="13.8715596330275" customWidth="1"/>
+    <col min="14" max="14" width="6.24770642201835" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1">
@@ -1335,7 +1339,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="37"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" customHeight="1">
       <c r="B3" s="5" t="s">
@@ -1352,7 +1356,7 @@
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="38"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="8" t="s">
         <v>22</v>
       </c>
@@ -1360,8 +1364,8 @@
       <c r="L3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" customHeight="1">
       <c r="B4" s="9" t="s">
@@ -1382,22 +1386,22 @@
       <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="44"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1">
       <c r="B5" s="11" t="s">
@@ -1409,103 +1413,103 @@
       <c r="D5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="17">
         <v>1000</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="15" t="s">
+      <c r="M5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="14">
-        <v>1000</v>
-      </c>
-      <c r="M5" s="17" t="s">
+      <c r="N5" s="45" t="s">
         <v>40</v>
-      </c>
-      <c r="N5" s="47" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" customHeight="1">
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="14">
+      <c r="G6" s="15">
+        <v>13694260535</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="17">
         <v>1001</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="45" t="s">
+      <c r="M6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="14">
-        <v>1001</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="47" t="s">
-        <v>41</v>
+      <c r="N6" s="45" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" customHeight="1">
       <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="14">
-        <v>1002</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="I7" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="48"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" customHeight="1">
       <c r="B8" s="9" t="s">
@@ -1517,27 +1521,27 @@
       <c r="D8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="14">
-        <v>1003</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="G8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="46" t="s">
+      <c r="I8" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="44" t="s">
         <v>56</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="48"/>
+        <v>52</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="46"/>
     </row>
     <row r="9" customHeight="1">
       <c r="B9" s="9" t="s">
@@ -1549,352 +1553,373 @@
       <c r="D9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="48"/>
+      <c r="F9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="46"/>
     </row>
     <row r="10" customHeight="1">
-      <c r="B10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
+      <c r="D10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="48"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="46"/>
     </row>
     <row r="11" customHeight="1">
-      <c r="F11" s="14"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="48"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="46"/>
     </row>
     <row r="12" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="48"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="46"/>
     </row>
     <row r="13" customHeight="1">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="48"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="46"/>
     </row>
     <row r="14" customHeight="1">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="46"/>
+    </row>
+    <row r="15" customHeight="1">
+      <c r="B15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="48"/>
-    </row>
-    <row r="15" customHeight="1">
-      <c r="B15" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="50"/>
+    </row>
+    <row r="16" customHeight="1">
+      <c r="B16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="52"/>
-    </row>
-    <row r="16" customHeight="1">
-      <c r="B16" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="24" t="s">
+      <c r="D16" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1">
+      <c r="B17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1">
-      <c r="B17" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+    </row>
+    <row r="18" customHeight="1">
+      <c r="B18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-    </row>
-    <row r="18" customHeight="1">
-      <c r="F18" s="30" t="s">
+      <c r="D18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
     </row>
     <row r="19" customHeight="1">
-      <c r="B19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="F19" s="31">
+      <c r="F19" s="29">
         <v>1000</v>
       </c>
-      <c r="G19" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="G19" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
     </row>
     <row r="20" customHeight="1">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="F20" s="22">
+        <v>1001</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" customHeight="1">
+      <c r="B21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="24">
-        <v>1001</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-    </row>
-    <row r="21" customHeight="1">
-      <c r="B21" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="24" t="s">
+      <c r="F21" s="30">
+        <v>2001</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="27"/>
+    </row>
+    <row r="22" customHeight="1">
+      <c r="B22" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="32">
-        <v>2001</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="29"/>
-    </row>
-    <row r="22" customHeight="1">
-      <c r="B22" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="24" t="s">
+      <c r="D22" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="32">
+        <v>3001</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="27"/>
+    </row>
+    <row r="23" customHeight="1">
+      <c r="B23" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="34">
-        <v>3001</v>
-      </c>
-      <c r="G22" s="34" t="s">
+      <c r="D23" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="32">
+        <v>4001</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" customHeight="1">
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" customHeight="1">
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+    </row>
+    <row r="26" customHeight="1">
+      <c r="B26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+    </row>
+    <row r="27" customHeight="1">
+      <c r="B27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" customHeight="1">
+      <c r="B28" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+    </row>
+    <row r="29" customHeight="1">
+      <c r="B29" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="29"/>
-    </row>
-    <row r="23" customHeight="1">
-      <c r="F23" s="34">
-        <v>4001</v>
-      </c>
-      <c r="G23" s="34" t="s">
+      <c r="C29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="O23" s="33"/>
-    </row>
-    <row r="24" customHeight="1">
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" customHeight="1">
-      <c r="B25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-    </row>
-    <row r="26" customHeight="1">
-      <c r="B26" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-    </row>
-    <row r="27" customHeight="1">
-      <c r="B27" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" customHeight="1">
-      <c r="B28" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-    </row>
-    <row r="29" customHeight="1">
-      <c r="B29" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" customHeight="1">
       <c r="B30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" customHeight="1">
+      <c r="B31" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="31" customHeight="1">
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+      <c r="D31" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" customHeight="1">
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1904,14 +1929,11 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10 C17">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C24 C18 C27:C1048576 C14:C16">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10 C14:C19 C28:C1048576 C22:C25">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-权限模块.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-权限模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26080" windowHeight="11300" tabRatio="841" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="26080" windowHeight="11280" tabRatio="841" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="库存模块功能导航" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>功能点</t>
   </si>
@@ -215,40 +215,76 @@
     <t>类型，1：管理员 2：老板 3：财务 4：部长 5：服务员 6：其他</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>权限表(privilege)</t>
+  </si>
+  <si>
     <t>退菜</t>
   </si>
   <si>
-    <t>权限表(privilege)</t>
+    <t>前台</t>
   </si>
   <si>
     <t>打折</t>
   </si>
   <si>
+    <t>pri_id</t>
+  </si>
+  <si>
+    <t>权限Id</t>
+  </si>
+  <si>
+    <t>赠送</t>
+  </si>
+  <si>
+    <t>pri_code</t>
+  </si>
+  <si>
+    <t>反结帐</t>
+  </si>
+  <si>
+    <t>类型，1：前台 2：后台 3：库存 4：历史 5：会员 6：系统</t>
+  </si>
+  <si>
     <t>后台</t>
   </si>
   <si>
-    <t>pri_id</t>
-  </si>
-  <si>
-    <t>权限Id</t>
-  </si>
-  <si>
     <t>库存</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>权限内容描述</t>
-  </si>
-  <si>
     <t>历史</t>
   </si>
   <si>
     <t>角色权限表(role_privilege)</t>
   </si>
   <si>
-    <t>权限名称</t>
+    <t>会员</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>discount_privilege</t>
+  </si>
+  <si>
+    <t>折扣权限</t>
+  </si>
+  <si>
+    <t>折扣权限表(discount_privilege)</t>
+  </si>
+  <si>
+    <t>discount_privilege_id</t>
+  </si>
+  <si>
+    <t>折扣权限Id</t>
+  </si>
+  <si>
+    <t>discount_id</t>
+  </si>
+  <si>
+    <t>折扣Id</t>
   </si>
 </sst>
 </file>
@@ -257,8 +293,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="8">
@@ -343,14 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -624,188 +653,191 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+  <cellXfs count="57">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,71 +902,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1163,124 +1195,124 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.6238532110092" style="52" customWidth="1"/>
-    <col min="2" max="2" width="9" style="53"/>
-    <col min="3" max="3" width="50.6238532110092" style="52" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="52"/>
+    <col min="1" max="1" width="20.6238532110092" style="53" customWidth="1"/>
+    <col min="2" max="2" width="9" style="54"/>
+    <col min="3" max="3" width="50.6238532110092" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" s="51" customFormat="1" customHeight="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" s="52" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customHeight="1">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customHeight="1">
-      <c r="A3" s="52" t="s">
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customHeight="1">
-      <c r="A4" s="52" t="s">
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customHeight="1">
-      <c r="A5" s="52" t="s">
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customHeight="1">
-      <c r="A6" s="52" t="s">
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customHeight="1">
-      <c r="A7" s="52" t="s">
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customHeight="1">
-      <c r="A8" s="52" t="s">
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customHeight="1">
-      <c r="A9" s="52" t="s">
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customHeight="1">
-      <c r="A10" s="52" t="s">
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customHeight="1">
-      <c r="A11" s="52" t="s">
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customHeight="1">
-      <c r="A12" s="52" t="s">
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customHeight="1">
-      <c r="A13" s="52" t="s">
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customHeight="1">
-      <c r="A14" s="52" t="s">
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="54">
         <v>1</v>
       </c>
     </row>
@@ -1299,10 +1331,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:O32"/>
+  <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1322,7 +1354,7 @@
     <col min="14" max="14" width="6.24770642201835" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customHeight="1">
+    <row r="2" customHeight="1" spans="2:15">
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1339,9 +1371,9 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="35"/>
-    </row>
-    <row r="3" customHeight="1">
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:14">
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1356,7 +1388,7 @@
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="8" t="s">
         <v>22</v>
       </c>
@@ -1364,10 +1396,10 @@
       <c r="L3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-    </row>
-    <row r="4" customHeight="1">
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+    </row>
+    <row r="4" customHeight="1" spans="2:14">
       <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
@@ -1386,24 +1418,24 @@
       <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="42"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1">
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="2:14">
       <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
@@ -1422,10 +1454,10 @@
       <c r="H5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="40" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="15" t="s">
@@ -1437,11 +1469,11 @@
       <c r="M5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="N5" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" customHeight="1">
+    <row r="6" customHeight="1" spans="2:14">
       <c r="B6" s="9" t="s">
         <v>41</v>
       </c>
@@ -1460,10 +1492,10 @@
       <c r="H6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="40" t="s">
         <v>44</v>
       </c>
       <c r="K6" s="15" t="s">
@@ -1475,11 +1507,11 @@
       <c r="M6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" customHeight="1">
+    <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="9" t="s">
         <v>47</v>
       </c>
@@ -1498,10 +1530,10 @@
       <c r="H7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="40" t="s">
         <v>51</v>
       </c>
       <c r="K7" s="15" t="s">
@@ -1509,9 +1541,9 @@
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="46"/>
-    </row>
-    <row r="8" customHeight="1">
+      <c r="N7" s="42"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:14">
       <c r="B8" s="9" t="s">
         <v>53</v>
       </c>
@@ -1530,10 +1562,10 @@
       <c r="H8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="40" t="s">
         <v>56</v>
       </c>
       <c r="K8" s="15" t="s">
@@ -1541,9 +1573,9 @@
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="18"/>
-      <c r="N8" s="46"/>
-    </row>
-    <row r="9" customHeight="1">
+      <c r="N8" s="42"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="9" t="s">
         <v>57</v>
       </c>
@@ -1562,10 +1594,10 @@
       <c r="H9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="40" t="s">
         <v>60</v>
       </c>
       <c r="K9" s="15" t="s">
@@ -1573,9 +1605,9 @@
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="18"/>
-      <c r="N9" s="46"/>
-    </row>
-    <row r="10" customHeight="1">
+      <c r="N9" s="42"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="9" t="s">
         <v>61</v>
       </c>
@@ -1588,25 +1620,25 @@
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="15"/>
       <c r="L10" s="17"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="46"/>
-    </row>
-    <row r="11" customHeight="1">
+      <c r="N10" s="42"/>
+    </row>
+    <row r="11" customHeight="1" spans="6:14">
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="15"/>
       <c r="L11" s="17"/>
       <c r="M11" s="18"/>
-      <c r="N11" s="46"/>
-    </row>
-    <row r="12" customHeight="1">
+      <c r="N11" s="42"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:14">
       <c r="B12" s="4" t="s">
         <v>63</v>
       </c>
@@ -1615,14 +1647,14 @@
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="15"/>
       <c r="L12" s="17"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="46"/>
-    </row>
-    <row r="13" customHeight="1">
+      <c r="N12" s="42"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:14">
       <c r="B13" s="19" t="s">
         <v>18</v>
       </c>
@@ -1635,14 +1667,14 @@
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="15"/>
       <c r="L13" s="17"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="46"/>
-    </row>
-    <row r="14" customHeight="1">
+      <c r="N13" s="42"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:14">
       <c r="B14" s="21" t="s">
         <v>41</v>
       </c>
@@ -1655,14 +1687,14 @@
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="15"/>
       <c r="L14" s="17"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="46"/>
-    </row>
-    <row r="15" customHeight="1">
+      <c r="N14" s="42"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:14">
       <c r="B15" s="23" t="s">
         <v>34</v>
       </c>
@@ -1675,14 +1707,14 @@
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
       <c r="L15" s="24"/>
       <c r="M15" s="25"/>
-      <c r="N15" s="50"/>
-    </row>
-    <row r="16" customHeight="1">
+      <c r="N15" s="46"/>
+    </row>
+    <row r="16" customHeight="1" spans="2:4">
       <c r="B16" s="21" t="s">
         <v>53</v>
       </c>
@@ -1693,7 +1725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" customHeight="1">
+    <row r="17" customHeight="1" spans="2:14">
       <c r="B17" s="9" t="s">
         <v>64</v>
       </c>
@@ -1713,7 +1745,7 @@
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
     </row>
-    <row r="18" customHeight="1">
+    <row r="18" customHeight="1" spans="2:14">
       <c r="B18" s="9" t="s">
         <v>61</v>
       </c>
@@ -1722,12 +1754,6 @@
       </c>
       <c r="D18" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>33</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -1737,44 +1763,43 @@
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
     </row>
-    <row r="19" customHeight="1">
-      <c r="F19" s="29">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>66</v>
-      </c>
+    <row r="19" customHeight="1" spans="8:15">
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
+      <c r="J19" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="47" t="s">
+        <v>66</v>
+      </c>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
     </row>
-    <row r="20" customHeight="1">
+    <row r="20" customHeight="1" spans="2:15">
       <c r="B20" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="F20" s="22">
-        <v>1001</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>68</v>
-      </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
+      <c r="J20" s="48">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" s="49" t="s">
+        <v>69</v>
+      </c>
       <c r="N20" s="27"/>
       <c r="O20" s="27"/>
     </row>
-    <row r="21" customHeight="1">
+    <row r="21" customHeight="1" spans="2:15">
       <c r="B21" s="19" t="s">
         <v>18</v>
       </c>
@@ -1784,145 +1809,237 @@
       <c r="D21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="30">
-        <v>2001</v>
-      </c>
-      <c r="G21" s="30" t="s">
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="22">
+        <v>1001</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
+      <c r="N21" s="28"/>
       <c r="O21" s="27"/>
     </row>
-    <row r="22" customHeight="1">
+    <row r="22" customHeight="1" spans="2:15">
       <c r="B22" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="32">
-        <v>3001</v>
-      </c>
-      <c r="G22" s="32" t="s">
         <v>72</v>
       </c>
+      <c r="J22" s="50">
+        <v>1002</v>
+      </c>
+      <c r="K22" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="49" t="s">
+        <v>69</v>
+      </c>
       <c r="O22" s="27"/>
     </row>
-    <row r="23" customHeight="1">
+    <row r="23" customHeight="1" spans="2:15">
       <c r="B23" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="32">
-        <v>4001</v>
-      </c>
-      <c r="G23" s="32" t="s">
+      <c r="D23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="51">
+        <v>1003</v>
+      </c>
+      <c r="K23" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="O23" s="31"/>
-    </row>
-    <row r="24" customHeight="1">
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" customHeight="1">
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" customHeight="1">
-      <c r="B26" s="4" t="s">
+      <c r="L23" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" s="28"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:12">
+      <c r="B24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" customHeight="1">
-      <c r="B27" s="19" t="s">
+      <c r="J24" s="51">
+        <v>2000</v>
+      </c>
+      <c r="K24" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="10:12">
+      <c r="J25" s="50">
+        <v>3000</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="10:12">
+      <c r="J26" s="51">
+        <v>4000</v>
+      </c>
+      <c r="K26" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:12">
+      <c r="B27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="J27" s="51">
+        <v>5000</v>
+      </c>
+      <c r="K27" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:12">
+      <c r="B28" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C28" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D28" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" customHeight="1">
-      <c r="B28" s="21" t="s">
+      <c r="J28" s="51">
+        <v>6000</v>
+      </c>
+      <c r="K28" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:12">
+      <c r="B29" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" customHeight="1">
-      <c r="B29" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="49"/>
+    </row>
+    <row r="30" customHeight="1" spans="2:7">
+      <c r="B30" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" customHeight="1">
-      <c r="B30" s="23" t="s">
-        <v>34</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" customHeight="1">
-      <c r="B31" s="21" t="s">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:7">
+      <c r="B31" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-    </row>
-    <row r="32" customHeight="1">
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
+      <c r="D31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" customHeight="1" spans="2:7">
+      <c r="B32" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="35" customHeight="1" spans="2:4">
+      <c r="B35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" customHeight="1" spans="2:4">
+      <c r="B36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:4">
+      <c r="B37" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:4">
+      <c r="B38" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="F3:I3"/>
@@ -1930,10 +2047,14 @@
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B35:D35"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10 C14:C19 C28:C1048576 C22:C25">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10 C14:C19 C22:C24">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C34 C37:C1048573 C25:C26">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-权限模块.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-权限模块.xlsx
@@ -221,43 +221,43 @@
     <t>权限表(privilege)</t>
   </si>
   <si>
+    <t>前台</t>
+  </si>
+  <si>
     <t>退菜</t>
   </si>
   <si>
-    <t>前台</t>
+    <t>pri_id</t>
+  </si>
+  <si>
+    <t>权限Id</t>
   </si>
   <si>
     <t>打折</t>
   </si>
   <si>
-    <t>pri_id</t>
-  </si>
-  <si>
-    <t>权限Id</t>
+    <t>pri_code</t>
   </si>
   <si>
     <t>赠送</t>
   </si>
   <si>
-    <t>pri_code</t>
+    <t>类型，1：前台 2：后台 3：库存 4：历史 5：会员 6：系统</t>
   </si>
   <si>
     <t>反结帐</t>
   </si>
   <si>
-    <t>类型，1：前台 2：后台 3：库存 4：历史 5：会员 6：系统</t>
-  </si>
-  <si>
     <t>后台</t>
   </si>
   <si>
     <t>库存</t>
   </si>
   <si>
+    <t>角色权限表(role_privilege)</t>
+  </si>
+  <si>
     <t>历史</t>
-  </si>
-  <si>
-    <t>角色权限表(role_privilege)</t>
   </si>
   <si>
     <t>会员</t>
@@ -379,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -498,6 +498,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -672,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -755,75 +770,78 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1195,20 +1213,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.6238532110092" style="53" customWidth="1"/>
-    <col min="2" max="2" width="9" style="54"/>
-    <col min="3" max="3" width="50.6238532110092" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="53"/>
+    <col min="1" max="1" width="20.6238532110092" style="54" customWidth="1"/>
+    <col min="2" max="2" width="9" style="55"/>
+    <col min="3" max="3" width="50.6238532110092" style="54" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" s="52" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A1" s="55" t="s">
+    <row r="1" s="53" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1216,103 +1234,103 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="55">
         <v>2</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="55">
         <v>2</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="55">
         <v>1</v>
       </c>
     </row>
@@ -1333,8 +1351,8 @@
   <sheetPr/>
   <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1371,7 +1389,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="31"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" customHeight="1" spans="2:14">
       <c r="B3" s="5" t="s">
@@ -1388,7 +1406,7 @@
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="32"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="8" t="s">
         <v>22</v>
       </c>
@@ -1396,8 +1414,8 @@
       <c r="L3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" customHeight="1" spans="2:14">
       <c r="B4" s="9" t="s">
@@ -1418,22 +1436,22 @@
       <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="38"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="2:14">
       <c r="B5" s="11" t="s">
@@ -1454,10 +1472,10 @@
       <c r="H5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="44" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="15" t="s">
@@ -1469,7 +1487,7 @@
       <c r="M5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="41" t="s">
+      <c r="N5" s="45" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1492,10 +1510,10 @@
       <c r="H6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="44" t="s">
         <v>44</v>
       </c>
       <c r="K6" s="15" t="s">
@@ -1507,7 +1525,7 @@
       <c r="M6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="45" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1530,10 +1548,10 @@
       <c r="H7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="44" t="s">
         <v>51</v>
       </c>
       <c r="K7" s="15" t="s">
@@ -1541,7 +1559,7 @@
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="42"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" customHeight="1" spans="2:14">
       <c r="B8" s="9" t="s">
@@ -1562,10 +1580,10 @@
       <c r="H8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="44" t="s">
         <v>56</v>
       </c>
       <c r="K8" s="15" t="s">
@@ -1573,7 +1591,7 @@
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="18"/>
-      <c r="N8" s="42"/>
+      <c r="N8" s="46"/>
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="9" t="s">
@@ -1594,10 +1612,10 @@
       <c r="H9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="44" t="s">
         <v>60</v>
       </c>
       <c r="K9" s="15" t="s">
@@ -1605,7 +1623,7 @@
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="18"/>
-      <c r="N9" s="42"/>
+      <c r="N9" s="46"/>
     </row>
     <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="9" t="s">
@@ -1620,23 +1638,23 @@
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
       <c r="K10" s="15"/>
       <c r="L10" s="17"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="42"/>
+      <c r="N10" s="46"/>
     </row>
     <row r="11" customHeight="1" spans="6:14">
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
       <c r="K11" s="15"/>
       <c r="L11" s="17"/>
       <c r="M11" s="18"/>
-      <c r="N11" s="42"/>
+      <c r="N11" s="46"/>
     </row>
     <row r="12" customHeight="1" spans="2:14">
       <c r="B12" s="4" t="s">
@@ -1647,12 +1665,12 @@
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
       <c r="K12" s="15"/>
       <c r="L12" s="17"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="42"/>
+      <c r="N12" s="46"/>
     </row>
     <row r="13" customHeight="1" spans="2:14">
       <c r="B13" s="19" t="s">
@@ -1667,12 +1685,12 @@
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
       <c r="K13" s="15"/>
       <c r="L13" s="17"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="42"/>
+      <c r="N13" s="46"/>
     </row>
     <row r="14" customHeight="1" spans="2:14">
       <c r="B14" s="21" t="s">
@@ -1687,12 +1705,12 @@
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
       <c r="K14" s="15"/>
       <c r="L14" s="17"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="42"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" customHeight="1" spans="2:14">
       <c r="B15" s="23" t="s">
@@ -1707,12 +1725,12 @@
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
       <c r="L15" s="24"/>
       <c r="M15" s="25"/>
-      <c r="N15" s="46"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" customHeight="1" spans="2:4">
       <c r="B16" s="21" t="s">
@@ -1764,20 +1782,30 @@
       <c r="N18" s="27"/>
     </row>
     <row r="19" customHeight="1" spans="8:15">
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="47" t="s">
+      <c r="H19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="I19" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="47" t="s">
+      <c r="J19" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
+      <c r="K19" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="28" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" customHeight="1" spans="2:15">
       <c r="B20" s="4" t="s">
@@ -1785,19 +1813,30 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="48">
+      <c r="H20" s="29">
         <v>1000</v>
       </c>
-      <c r="K20" s="48" t="s">
+      <c r="I20" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
+      <c r="J20" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="52" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" customHeight="1" spans="2:15">
       <c r="B21" s="19" t="s">
@@ -1809,44 +1848,69 @@
       <c r="D21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="22">
+      <c r="H21" s="29">
         <v>1001</v>
       </c>
-      <c r="K21" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L21" s="49" t="s">
+      <c r="I21" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="27"/>
+      <c r="J21" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="52" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" customHeight="1" spans="2:15">
       <c r="B22" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="30">
+        <v>1002</v>
+      </c>
+      <c r="I22" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="50">
-        <v>1002</v>
-      </c>
-      <c r="K22" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="L22" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="O22" s="27"/>
+      <c r="J22" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="52" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" customHeight="1" spans="2:15">
       <c r="B23" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>25</v>
@@ -1854,18 +1918,32 @@
       <c r="D23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="51">
+      <c r="H23" s="31">
         <v>1003</v>
       </c>
-      <c r="K23" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="28"/>
-    </row>
-    <row r="24" customHeight="1" spans="2:12">
+      <c r="I23" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:15">
       <c r="B24" s="21" t="s">
         <v>64</v>
       </c>
@@ -1873,57 +1951,107 @@
         <v>25</v>
       </c>
       <c r="D24" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="32">
+        <v>1004</v>
+      </c>
+      <c r="I24" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="8:15">
+      <c r="H25" s="32">
         <v>2000</v>
       </c>
-      <c r="K24" s="51" t="s">
+      <c r="I25" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="L24" s="49" t="s">
+      <c r="J25" s="51" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="10:12">
-      <c r="J25" s="50">
+      <c r="K25" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="52"/>
+    </row>
+    <row r="26" customHeight="1" spans="8:15">
+      <c r="H26" s="31">
         <v>3000</v>
       </c>
-      <c r="K25" s="50" t="s">
+      <c r="I26" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="L25" s="49" t="s">
+      <c r="J26" s="51" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="10:12">
-      <c r="J26" s="51">
-        <v>4000</v>
-      </c>
-      <c r="K26" s="51" t="s">
+      <c r="K26" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:15">
+      <c r="B27" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="L26" s="49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="2:12">
-      <c r="B27" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="J27" s="51">
-        <v>5000</v>
-      </c>
-      <c r="K27" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="2:12">
+      <c r="H27" s="32">
+        <v>4000</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:15">
       <c r="B28" s="19" t="s">
         <v>18</v>
       </c>
@@ -1933,17 +2061,28 @@
       <c r="D28" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="51">
-        <v>6000</v>
-      </c>
-      <c r="K28" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="L28" s="49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="2:12">
+      <c r="H28" s="32">
+        <v>5000</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:15">
       <c r="B29" s="21" t="s">
         <v>41</v>
       </c>
@@ -1953,24 +2092,39 @@
       <c r="D29" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="49"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="32">
+        <v>6000</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
     </row>
     <row r="30" customHeight="1" spans="2:7">
       <c r="B30" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" customHeight="1" spans="2:7">
       <c r="B31" s="23" t="s">
@@ -1982,8 +2136,8 @@
       <c r="D31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" customHeight="1" spans="2:7">
       <c r="B32" s="21" t="s">
@@ -1995,8 +2149,8 @@
       <c r="D32" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
     </row>
     <row r="35" customHeight="1" spans="2:4">
       <c r="B35" s="4" t="s">

--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-权限模块.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-权限模块.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>功能点</t>
   </si>
@@ -218,9 +218,18 @@
     <t>类型</t>
   </si>
   <si>
+    <t>店长</t>
+  </si>
+  <si>
+    <t>收银员</t>
+  </si>
+  <si>
     <t>权限表(privilege)</t>
   </si>
   <si>
+    <t>点菜</t>
+  </si>
+  <si>
     <t>前台</t>
   </si>
   <si>
@@ -248,13 +257,19 @@
     <t>反结帐</t>
   </si>
   <si>
+    <t>结帐</t>
+  </si>
+  <si>
+    <t>账单</t>
+  </si>
+  <si>
+    <t>角色权限表(role_privilege)</t>
+  </si>
+  <si>
     <t>后台</t>
   </si>
   <si>
     <t>库存</t>
-  </si>
-  <si>
-    <t>角色权限表(role_privilege)</t>
   </si>
   <si>
     <t>历史</t>
@@ -379,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -498,21 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -687,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -770,79 +770,74 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1213,20 +1208,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.6238532110092" style="54" customWidth="1"/>
-    <col min="2" max="2" width="9" style="55"/>
-    <col min="3" max="3" width="50.6238532110092" style="54" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="54"/>
+    <col min="1" max="1" width="20.6238532110092" style="53" customWidth="1"/>
+    <col min="2" max="2" width="9" style="54"/>
+    <col min="3" max="3" width="50.6238532110092" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" s="53" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A1" s="56" t="s">
+    <row r="1" s="52" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1234,103 +1229,103 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="55">
+      <c r="B3" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="54">
         <v>2</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="54">
         <v>2</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="54">
         <v>1</v>
       </c>
     </row>
@@ -1349,10 +1344,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:O38"/>
+  <dimension ref="B2:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1389,7 +1384,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="35"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" customHeight="1" spans="2:14">
       <c r="B3" s="5" t="s">
@@ -1406,7 +1401,7 @@
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="8" t="s">
         <v>22</v>
       </c>
@@ -1414,8 +1409,8 @@
       <c r="L3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" customHeight="1" spans="2:14">
       <c r="B4" s="9" t="s">
@@ -1436,22 +1431,22 @@
       <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="42"/>
+      <c r="N4" s="41"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="2:14">
       <c r="B5" s="11" t="s">
@@ -1472,10 +1467,10 @@
       <c r="H5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="43" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="15" t="s">
@@ -1487,7 +1482,7 @@
       <c r="M5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="N5" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1510,10 +1505,10 @@
       <c r="H6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="43" t="s">
         <v>44</v>
       </c>
       <c r="K6" s="15" t="s">
@@ -1525,7 +1520,7 @@
       <c r="M6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1548,10 +1543,10 @@
       <c r="H7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="43" t="s">
         <v>51</v>
       </c>
       <c r="K7" s="15" t="s">
@@ -1559,7 +1554,7 @@
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="46"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" customHeight="1" spans="2:14">
       <c r="B8" s="9" t="s">
@@ -1580,10 +1575,10 @@
       <c r="H8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="43" t="s">
         <v>56</v>
       </c>
       <c r="K8" s="15" t="s">
@@ -1591,7 +1586,7 @@
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="18"/>
-      <c r="N8" s="46"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="9" t="s">
@@ -1612,10 +1607,10 @@
       <c r="H9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="43" t="s">
         <v>60</v>
       </c>
       <c r="K9" s="15" t="s">
@@ -1623,7 +1618,7 @@
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="18"/>
-      <c r="N9" s="46"/>
+      <c r="N9" s="45"/>
     </row>
     <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="9" t="s">
@@ -1638,23 +1633,23 @@
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="15"/>
       <c r="L10" s="17"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="46"/>
+      <c r="N10" s="45"/>
     </row>
     <row r="11" customHeight="1" spans="6:14">
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="15"/>
       <c r="L11" s="17"/>
       <c r="M11" s="18"/>
-      <c r="N11" s="46"/>
+      <c r="N11" s="45"/>
     </row>
     <row r="12" customHeight="1" spans="2:14">
       <c r="B12" s="4" t="s">
@@ -1665,12 +1660,12 @@
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="15"/>
       <c r="L12" s="17"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="46"/>
+      <c r="N12" s="45"/>
     </row>
     <row r="13" customHeight="1" spans="2:14">
       <c r="B13" s="19" t="s">
@@ -1685,12 +1680,12 @@
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="15"/>
       <c r="L13" s="17"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="46"/>
+      <c r="N13" s="45"/>
     </row>
     <row r="14" customHeight="1" spans="2:14">
       <c r="B14" s="21" t="s">
@@ -1705,12 +1700,12 @@
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
       <c r="K14" s="15"/>
       <c r="L14" s="17"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="46"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" customHeight="1" spans="2:14">
       <c r="B15" s="23" t="s">
@@ -1725,12 +1720,12 @@
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
       <c r="L15" s="24"/>
       <c r="M15" s="25"/>
-      <c r="N15" s="50"/>
+      <c r="N15" s="49"/>
     </row>
     <row r="16" customHeight="1" spans="2:4">
       <c r="B16" s="21" t="s">
@@ -1781,7 +1776,7 @@
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
     </row>
-    <row r="19" customHeight="1" spans="8:15">
+    <row r="19" customHeight="1" spans="8:16">
       <c r="H19" s="28" t="s">
         <v>32</v>
       </c>
@@ -1801,15 +1796,18 @@
         <v>51</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="O19" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="2:15">
+    <row r="20" customHeight="1" spans="2:16">
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1817,28 +1815,31 @@
         <v>1000</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="K20" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="N20" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="O20" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="2:15">
+        <v>70</v>
+      </c>
+      <c r="J20" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:16">
       <c r="B21" s="19" t="s">
         <v>18</v>
       </c>
@@ -1852,65 +1853,69 @@
         <v>1001</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="2:15">
+        <v>72</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:16">
       <c r="B22" s="21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="22">
+        <v>1002</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="30">
-        <v>1002</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="2:15">
+      <c r="K22" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="50"/>
+    </row>
+    <row r="23" customHeight="1" spans="2:16">
       <c r="B23" s="21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>25</v>
@@ -1918,32 +1923,33 @@
       <c r="D23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="30">
         <v>1003</v>
       </c>
-      <c r="I23" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="M23" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="O23" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="2:15">
+      <c r="I23" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="50"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:16">
       <c r="B24" s="21" t="s">
         <v>64</v>
       </c>
@@ -1951,107 +1957,119 @@
         <v>25</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="32">
+        <v>78</v>
+      </c>
+      <c r="H24" s="31">
         <v>1004</v>
       </c>
-      <c r="I24" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="J24" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="N24" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="O24" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="8:15">
-      <c r="H25" s="32">
-        <v>2000</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="N25" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="O25" s="52"/>
-    </row>
-    <row r="26" customHeight="1" spans="8:15">
+      <c r="I24" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="50"/>
+    </row>
+    <row r="25" customHeight="1" spans="8:16">
+      <c r="H25" s="31">
+        <v>1005</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="50"/>
+    </row>
+    <row r="26" customHeight="1" spans="8:16">
       <c r="H26" s="31">
-        <v>3000</v>
+        <v>1006</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="K26" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="M26" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-    </row>
-    <row r="27" customHeight="1" spans="2:15">
+        <v>81</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O26" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="50"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:16">
       <c r="B27" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="H27" s="32">
-        <v>4000</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-    </row>
-    <row r="28" customHeight="1" spans="2:15">
+      <c r="H27" s="31">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" s="50"/>
+      <c r="P27" s="51"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:16">
       <c r="B28" s="19" t="s">
         <v>18</v>
       </c>
@@ -2061,28 +2079,29 @@
       <c r="D28" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="32">
-        <v>5000</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="L28" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-    </row>
-    <row r="29" customHeight="1" spans="2:15">
+      <c r="H28" s="30">
+        <v>3000</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:16">
       <c r="B29" s="21" t="s">
         <v>41</v>
       </c>
@@ -2092,41 +2111,65 @@
       <c r="D29" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="32">
-        <v>6000</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="J29" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="K29" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="L29" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-    </row>
-    <row r="30" customHeight="1" spans="2:7">
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="31">
+        <v>4000</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="51"/>
+    </row>
+    <row r="30" customHeight="1" spans="2:16">
       <c r="B30" s="21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" customHeight="1" spans="2:7">
+        <v>74</v>
+      </c>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="31">
+        <v>5000</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="51"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:16">
       <c r="B31" s="23" t="s">
         <v>34</v>
       </c>
@@ -2136,25 +2179,44 @@
       <c r="D31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="31">
+        <v>6000</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" customHeight="1" spans="2:7">
       <c r="B32" s="21" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
+        <v>89</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="35" customHeight="1" spans="2:4">
       <c r="B35" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2172,24 +2234,24 @@
     </row>
     <row r="37" customHeight="1" spans="2:4">
       <c r="B37" s="21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:4">
       <c r="B38" s="21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2204,11 +2266,8 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B35:D35"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10 C14:C19 C22:C24">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C34 C37:C1048573 C25:C26">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10 C14:C19 C22:C26 C29:C34 C37:C1048573">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
